--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="5145" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="addEmp" sheetId="1" r:id="rId1"/>
     <sheet name="negativeLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="addEmp1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>firstName</t>
   </si>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,6 +152,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +187,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,69 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,30 +503,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +537,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -591,15 +591,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,130 +609,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1232,14 +1232,149 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="ghagi@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="mowen@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="dtrump@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="ghsas@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId5" display="hsukur@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId6" display="jjjones@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
